--- a/data/cfq_12_periods_return_test.xlsx
+++ b/data/cfq_12_periods_return_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D54E2-4277-7048-9C4B-3A9E70C3B5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE470B8-4683-3146-A2F5-ADC52751DFC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="660" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="loan_notice" sheetId="18" r:id="rId4"/>
     <sheet name="loan_asset" sheetId="19" r:id="rId5"/>
     <sheet name="return" sheetId="21" r:id="rId6"/>
+    <sheet name="repay_two_periods" sheetId="28" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,6 +1024,277 @@
     <rPh sb="5" eb="6">
       <t>jie kou</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙分期一次还款2期</t>
+    <rPh sb="0" eb="1">
+      <t>yi zhi fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan kuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "repayment": {
+    "projectId": "274556873590452224",
+    "sourceRepaymentId": "987585",
+    "repayType": "repayment",
+    "successAmount": 26250.0,
+    "payTime": "2020-12-18 09:52:25",
+    "sourceCreateTime": "2020-12-18 09:52:25"
+  },
+  "repaymentDetailList": [
+    {
+      "sourceRepaymentDetailId": "1805130660",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531697,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "954458241",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531698,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "18035130660",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531697,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "9544358241",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "financePartner",
+      "relatedPlanId": 48531698,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": null
+    },
+    {
+      "sourceRepaymentDetailId": "2144703857",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741187,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    },
+    {
+      "sourceRepaymentDetailId": "351693489",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741188,
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    },
+    {
+      "sourceRepaymentDetailId": "21344703857",
+      "repaymentPlanType": "Principal",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741187,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 1,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 12500.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    },
+    {
+      "sourceRepaymentDetailId": "3516393489",
+      "repaymentPlanType": "Interest",
+      "assetPlanOwner": "foundPartner",
+      "relatedPlanId": 21741188,
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "planCategory": 2,
+      "overdueStatus": "not_overdue",
+      "thisPayAmount": 625.0,
+      "payTime": "2020-12-18 09:52:26",
+      "sourceCreateTime": "2020-12-18 09:52:26",
+      "institution": "zhtb"
+    }
+  ],
+  "repaymentPlanList": [
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 400251,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 878784,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 228791,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "foundPartner",
+      "sourcePlanId": 572647,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": "zhtb",
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 609496,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 448461,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 1,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:27",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 802972,
+      "repaymentPlanType": "Principal",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 12500.0,
+      "payAmount": 12500.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:26",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    },
+    {
+      "assetPlanOwner": "financePartner",
+      "sourcePlanId": 995762,
+      "repaymentPlanType": "Interest",
+      "repaymentStatus": "repayment_done",
+      "overdueStatus": "not_overdue",
+      "period": 2,
+      "planPayDate": "2021-01-10",
+      "curAmount": 625.0,
+      "payAmount": 625.0,
+      "reliefAmount": 0.0,
+      "payTime": "2020-12-18 09:52:27",
+      "overdueDays": 0,
+      "institution": null,
+      "businessType": null
+    }
+  ],
+  "feePlanList": []
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1687,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B9BCB7-6A26-4945-A349-7FA72F669C60}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,4 +2010,62 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEBF9C2-D63B-1449-9D8F-B9639015D0D4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>